--- a/results/I2_N10_T30_C300_0_P6_res.xlsx
+++ b/results/I2_N10_T30_C300_0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>664.8770074779572</v>
+        <v>528.9578650152857</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01700019836425781</v>
+        <v>0.01600003242492676</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.97700747795366</v>
+        <v>45.77786501528455</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>155.3300000000036</v>
+        <v>87.55000000000119</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>466.5699999999999</v>
+        <v>395.63</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.60033324079215</v>
+        <v>22.61068956408072</v>
       </c>
     </row>
     <row r="4">
@@ -1025,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>12.87311677451509</v>
       </c>
     </row>
     <row r="7">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.185116028074887</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1065,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>23.22876137241512</v>
       </c>
     </row>
     <row r="10">
@@ -1081,7 +1081,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.14711948224307</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1089,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.55068636700489</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1097,7 +1097,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.21630137166173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1105,7 +1105,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.65547625200509</v>
+        <v>25.21630137166173</v>
       </c>
     </row>
     <row r="15">
@@ -1113,7 +1113,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>28.21630585843227</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -1176,10 +1176,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1190,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>310.74</v>
+        <v>297.2549999999998</v>
       </c>
     </row>
     <row r="8">
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>321.0250000000008</v>
+        <v>314.6650000000008</v>
       </c>
     </row>
     <row r="9">
@@ -1320,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>307.215</v>
+        <v>311.2050000000008</v>
       </c>
     </row>
     <row r="10">
@@ -1331,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>324.5700000000008</v>
+        <v>316.3800000000008</v>
       </c>
     </row>
     <row r="11">
@@ -1342,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>314.1150000000008</v>
+        <v>301.5249999999998</v>
       </c>
     </row>
     <row r="12">
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>81.47500000000072</v>
+        <v>67.77500000000072</v>
       </c>
     </row>
     <row r="13">
@@ -1364,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>80.68000000000072</v>
+        <v>73.77000000000072</v>
       </c>
     </row>
     <row r="14">
@@ -1375,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>84.71500000000073</v>
+        <v>74.03500000000074</v>
       </c>
     </row>
     <row r="15">
@@ -1386,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>80.43500000000073</v>
+        <v>73.04500000000073</v>
       </c>
     </row>
     <row r="16">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>87.34500000000074</v>
+        <v>72.66500000000073</v>
       </c>
     </row>
     <row r="17">
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>117.7199999999997</v>
+        <v>129.3599999999997</v>
       </c>
     </row>
     <row r="23">
@@ -1474,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>118.7149999999991</v>
+        <v>138.3950000000007</v>
       </c>
     </row>
     <row r="24">
@@ -1485,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>115.9699999999984</v>
+        <v>136.2050000000008</v>
       </c>
     </row>
     <row r="25">
@@ -1496,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>115.6449999999997</v>
+        <v>136.5700000000007</v>
       </c>
     </row>
     <row r="26">
@@ -1507,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>116.4549999999991</v>
+        <v>132.8049999999997</v>
       </c>
     </row>
     <row r="27">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>50.99000000000022</v>
+        <v>62.63000000000022</v>
       </c>
     </row>
     <row r="28">
@@ -1529,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>51.24000000000022</v>
+        <v>70.92000000000021</v>
       </c>
     </row>
     <row r="29">
@@ -1540,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>47.42000000000021</v>
+        <v>67.65500000000021</v>
       </c>
     </row>
     <row r="30">
@@ -1551,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.92000000000021</v>
+        <v>66.84500000000021</v>
       </c>
     </row>
     <row r="31">
@@ -1562,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>49.06000000000022</v>
+        <v>65.41000000000022</v>
       </c>
     </row>
     <row r="32">
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>200.7949999999992</v>
+        <v>236.3350000000021</v>
       </c>
     </row>
     <row r="38">
@@ -1639,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>203.435</v>
+        <v>246.4550000000021</v>
       </c>
     </row>
     <row r="39">
@@ -1650,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>193.9449999999992</v>
+        <v>231.7250000000021</v>
       </c>
     </row>
     <row r="40">
@@ -1661,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>205.415</v>
+        <v>253.5450000000021</v>
       </c>
     </row>
     <row r="41">
@@ -1672,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>198.31</v>
+        <v>239.25</v>
       </c>
     </row>
     <row r="42">
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>166.9600000000012</v>
+        <v>153.2600000000012</v>
       </c>
     </row>
     <row r="48">
@@ -1749,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>168.6450000000012</v>
+        <v>161.7350000000012</v>
       </c>
     </row>
     <row r="49">
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>164.4300000000012</v>
+        <v>153.75</v>
       </c>
     </row>
     <row r="50">
@@ -1771,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>171.1650000000012</v>
+        <v>163.7750000000012</v>
       </c>
     </row>
     <row r="51">
@@ -1782,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>172.0750000000012</v>
+        <v>157.3950000000012</v>
       </c>
     </row>
     <row r="52">
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>224.9100000000005</v>
+        <v>187.309999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1804,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>227.3250000000005</v>
+        <v>197.075</v>
       </c>
     </row>
     <row r="54">
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>226.1600000000005</v>
+        <v>197.935</v>
       </c>
     </row>
     <row r="55">
@@ -1826,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>231.8200000000005</v>
+        <v>197.225</v>
       </c>
     </row>
     <row r="56">
@@ -1837,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>224.9900000000005</v>
+        <v>185.719999999999</v>
       </c>
     </row>
     <row r="57">
@@ -1848,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>212.0549999999987</v>
+        <v>297.2549999999998</v>
       </c>
     </row>
     <row r="58">
@@ -1859,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>215.8299999999987</v>
+        <v>314.6650000000008</v>
       </c>
     </row>
     <row r="59">
@@ -1870,7 +1870,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>177.0399999999987</v>
+        <v>311.2050000000008</v>
       </c>
     </row>
     <row r="60">
@@ -1881,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>198</v>
+        <v>316.3800000000008</v>
       </c>
     </row>
     <row r="61">
@@ -1892,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>184.7</v>
+        <v>301.5249999999998</v>
       </c>
     </row>
     <row r="62">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>224.9100000000005</v>
+        <v>212.0549999999987</v>
       </c>
     </row>
     <row r="63">
@@ -1914,7 +1914,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>227.3250000000005</v>
+        <v>215.8299999999987</v>
       </c>
     </row>
     <row r="64">
@@ -1925,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>226.1600000000005</v>
+        <v>177.0399999999987</v>
       </c>
     </row>
     <row r="65">
@@ -1936,7 +1936,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>231.8200000000005</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66">
@@ -1947,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>224.9900000000005</v>
+        <v>184.7</v>
       </c>
     </row>
     <row r="67">
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>310.74</v>
+        <v>236.3350000000021</v>
       </c>
     </row>
     <row r="68">
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>321.0250000000008</v>
+        <v>246.4550000000021</v>
       </c>
     </row>
     <row r="69">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>307.215</v>
+        <v>231.7250000000021</v>
       </c>
     </row>
     <row r="70">
@@ -1991,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>324.5700000000008</v>
+        <v>253.5450000000021</v>
       </c>
     </row>
     <row r="71">
@@ -2002,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>314.1150000000008</v>
+        <v>239.25</v>
       </c>
     </row>
   </sheetData>
@@ -2060,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>14.665</v>
       </c>
     </row>
     <row r="4">
@@ -2071,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>11.205</v>
       </c>
     </row>
     <row r="5">
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>16.38000000000076</v>
       </c>
     </row>
     <row r="6">
@@ -2093,7 +2093,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.52499999999983</v>
       </c>
     </row>
     <row r="7">
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>10.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2170,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>21.02500000000061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2181,7 +2181,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2192,7 +2192,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>24.57000000000062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2203,7 +2203,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>14.1150000000006</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="8">
@@ -2316,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="9">
@@ -2327,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="10">
@@ -2338,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="11">
@@ -2349,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="12">
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>18.89</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="23">
@@ -2481,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.08</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="24">
@@ -2492,7 +2492,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>24.99</v>
+        <v>4.755</v>
       </c>
     </row>
     <row r="25">
@@ -2503,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>26.725</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="26">
@@ -2514,7 +2514,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>23.83</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="27">
@@ -2803,7 +2803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2866,20 +2866,9 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
